--- a/Module 18 - Employee Benefits.xlsx
+++ b/Module 18 - Employee Benefits.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B273B688-859C-4A02-A6DA-FA4C0B99BAEC}"/>
+  <xr:revisionPtr revIDLastSave="849" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{532EBCEA-D1BD-49CF-8CC2-55A5EFE397C2}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="4350" windowWidth="21600" windowHeight="11385" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="5280" yWindow="-16620" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Module 18" sheetId="2" r:id="rId2"/>
+    <sheet name="WSE18.1" sheetId="3" r:id="rId3"/>
+    <sheet name="WSE18.2" sheetId="4" r:id="rId4"/>
+    <sheet name="WSE18.3" sheetId="5" r:id="rId5"/>
+    <sheet name="WSE18.4" sheetId="6" r:id="rId6"/>
+    <sheet name="WSE18.6" sheetId="7" r:id="rId7"/>
+    <sheet name="WSE18.7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="184">
   <si>
     <t>Main</t>
   </si>
@@ -46,6 +52,551 @@
   </si>
   <si>
     <t>Module 18</t>
+  </si>
+  <si>
+    <t>DC and DB pension schemes</t>
+  </si>
+  <si>
+    <t>Short term EE benefit - settled entirely within 12m of the end of the annual reporting period in which the EE renders service</t>
+  </si>
+  <si>
+    <t>wages, salary, NIC, paid leave, Profit sharig and bonues, non-monetary benefits</t>
+  </si>
+  <si>
+    <t>Post employment benefits</t>
+  </si>
+  <si>
+    <t>pension are most common form of post employment benefit</t>
+  </si>
+  <si>
+    <t>salary - paid to EE</t>
+  </si>
+  <si>
+    <t>PAYE and NIC - paid to HMRC</t>
+  </si>
+  <si>
+    <t>EE contrib and ER pension cost goes straight to pension plan</t>
+  </si>
+  <si>
+    <t>depends what type of pension plan is operated by the company</t>
+  </si>
+  <si>
+    <t>defined contribution</t>
+  </si>
+  <si>
+    <t>defined benefit</t>
+  </si>
+  <si>
+    <t>staff cost can be capitalised into an asset - development of IA for example</t>
+  </si>
+  <si>
+    <t>in this case, then pension contribution is capitalised also</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>actuary advises on contribution amounts</t>
+  </si>
+  <si>
+    <t>if there are insufficient funds, contributions will be increased.  If there is a surplus of funds, they will be decreased</t>
+  </si>
+  <si>
+    <t>the obligatoin to ensure the plan has sufficient funds (and the risk that it does not) lie with the employer</t>
+  </si>
+  <si>
+    <t>Overveiw fo accounting treatment</t>
+  </si>
+  <si>
+    <t>DB pension recognised as net asset or net liability</t>
+  </si>
+  <si>
+    <t>not appropriate to recognise contributions as an expense as they may vary significantly from year to year</t>
+  </si>
+  <si>
+    <t>surplus or deficit is computed by the FV of pension assets less PV of future pension obligations</t>
+  </si>
+  <si>
+    <t>assets large than PV of future obligations then there is a pension surplus, if obligation larger than assets, pension deficit</t>
+  </si>
+  <si>
+    <t>actuary produces estimate at each reporting date</t>
+  </si>
+  <si>
+    <t>the pension assets are measured at FV  -market price or best estimate</t>
+  </si>
+  <si>
+    <t>the pension obligation is computed by an actuary.</t>
+  </si>
+  <si>
+    <t>pension liablity will be given in questions.  Do not have to do actuarial computations</t>
+  </si>
+  <si>
+    <t>Step 1:  actuary advises net pension or surplus</t>
+  </si>
+  <si>
+    <t>Step 2:  Accountatn recognises the change in surplus or deficit</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>obligation</t>
+  </si>
+  <si>
+    <t>net deficit</t>
+  </si>
+  <si>
+    <t>Asset - liab</t>
+  </si>
+  <si>
+    <t>Closing balance</t>
+  </si>
+  <si>
+    <t>remeasurement</t>
+  </si>
+  <si>
+    <t>Finance income/cost</t>
+  </si>
+  <si>
+    <t>settlement</t>
+  </si>
+  <si>
+    <t>past service cost</t>
+  </si>
+  <si>
+    <t>current service cost</t>
+  </si>
+  <si>
+    <t>Benefit payments</t>
+  </si>
+  <si>
+    <t>Contributions</t>
+  </si>
+  <si>
+    <t>Opening balance</t>
+  </si>
+  <si>
+    <t>Activity 2</t>
+  </si>
+  <si>
+    <t>Activity 1</t>
+  </si>
+  <si>
+    <t>Net pension asset</t>
+  </si>
+  <si>
+    <t>Obligation (actuarial value)</t>
+  </si>
+  <si>
+    <t>Assets (market value)</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>service cost</t>
+  </si>
+  <si>
+    <t>pensionable salaries</t>
+  </si>
+  <si>
+    <t>Contributions paid</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Step 1:  Contributions</t>
+  </si>
+  <si>
+    <t>dr - SFP pension asset</t>
+  </si>
+  <si>
+    <t>cr - bank</t>
+  </si>
+  <si>
+    <t>being contributions paid on 01/01/2023</t>
+  </si>
+  <si>
+    <t>Step 2: Benfits payment to pensioners</t>
+  </si>
+  <si>
+    <t>dr  - pension liability</t>
+  </si>
+  <si>
+    <t>cr - pension asset</t>
+  </si>
+  <si>
+    <t>being benefit payments to pensions throughout the year</t>
+  </si>
+  <si>
+    <t>Step 3:  Service cost</t>
+  </si>
+  <si>
+    <t>cr - pension obligatoin</t>
+  </si>
+  <si>
+    <t>being current service cost</t>
+  </si>
+  <si>
+    <t>Step 4:  Interest</t>
+  </si>
+  <si>
+    <t>Interest is calculated on the balance brought forward, adjusted for contributions,
+benefit payments, past service costs and settlements (but not current service costs).</t>
+  </si>
+  <si>
+    <t>Contributions at the start of the year</t>
+  </si>
+  <si>
+    <t>Benefit payments evenly throughout the years</t>
+  </si>
+  <si>
+    <t>Adjusted balance</t>
+  </si>
+  <si>
+    <t>Final icome on asset/costs on obligation (5.5%)</t>
+  </si>
+  <si>
+    <t>net finance income</t>
+  </si>
+  <si>
+    <t>cr - SPL finance income</t>
+  </si>
+  <si>
+    <t>cr - Pensionl liability</t>
+  </si>
+  <si>
+    <t>dr - pension asset</t>
+  </si>
+  <si>
+    <t>being net finance income on pension balance</t>
+  </si>
+  <si>
+    <t>Remeasurement</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>PV of pension obligation</t>
+  </si>
+  <si>
+    <t>Current service cost</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Remeasurement gain and actuarial loss</t>
+  </si>
+  <si>
+    <t>An increase to the fair value of pension assets is a remeasurement gain. An
+increase to the present value of the pension obligation is an actuarial loss.</t>
+  </si>
+  <si>
+    <t>Net gain</t>
+  </si>
+  <si>
+    <t>cr - Pension obligaoitn</t>
+  </si>
+  <si>
+    <t>being remeasurement gain on pension assets and actuarial loss on pension obligation</t>
+  </si>
+  <si>
+    <t>dr - staff costs</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;can't quite square this</t>
+  </si>
+  <si>
+    <t>adj opening balance</t>
+  </si>
+  <si>
+    <t>cr - RE</t>
+  </si>
+  <si>
+    <t>Past service cost and settlements</t>
+  </si>
+  <si>
+    <t>Past service cost</t>
+  </si>
+  <si>
+    <t>cost estimated at</t>
+  </si>
+  <si>
+    <t>additional conribution</t>
+  </si>
+  <si>
+    <t>total obligation reduced</t>
+  </si>
+  <si>
+    <t>transferred to the DC plan</t>
+  </si>
+  <si>
+    <t>dr - SPL staff costs</t>
+  </si>
+  <si>
+    <t>cr - Pension account (obligation)</t>
+  </si>
+  <si>
+    <t>being past service cost</t>
+  </si>
+  <si>
+    <t>dr - pension accounts (assets)</t>
+  </si>
+  <si>
+    <t>being additional contribution paid on 31 December 2023</t>
+  </si>
+  <si>
+    <t>Gain on settlement</t>
+  </si>
+  <si>
+    <t>dr - Pension obligatioin</t>
+  </si>
+  <si>
+    <t>being gain on settlement</t>
+  </si>
+  <si>
+    <t>cr - Pension asset</t>
+  </si>
+  <si>
+    <t>Requirement 2</t>
+  </si>
+  <si>
+    <t>FV of pension assets</t>
+  </si>
+  <si>
+    <t>benefit payments</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>remesurement gain and actuarial losss</t>
+  </si>
+  <si>
+    <t>net gian</t>
+  </si>
+  <si>
+    <t>cr -  SPL staff cost</t>
+  </si>
+  <si>
+    <t>cr - Pension obligation</t>
+  </si>
+  <si>
+    <t>De Vries Ltd</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>Wages and salaries</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>ER NIC</t>
+  </si>
+  <si>
+    <t>EE NIC</t>
+  </si>
+  <si>
+    <t>cr - accrued expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr - HMRC </t>
+  </si>
+  <si>
+    <t>being accrued staff cost for june</t>
+  </si>
+  <si>
+    <t>Profit sharing scheme</t>
+  </si>
+  <si>
+    <t>% of PBT</t>
+  </si>
+  <si>
+    <t>PBT</t>
+  </si>
+  <si>
+    <t>adj. % of PBT</t>
+  </si>
+  <si>
+    <t>accrual at YE</t>
+  </si>
+  <si>
+    <t>dr - staff cost</t>
+  </si>
+  <si>
+    <t>cr - accrued expenses</t>
+  </si>
+  <si>
+    <t>being profit share accrual at year end</t>
+  </si>
+  <si>
+    <t>Total employment  cost</t>
+  </si>
+  <si>
+    <t>Total employment cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE NIC </t>
+  </si>
+  <si>
+    <t>Profit sharing scheme including NIC</t>
+  </si>
+  <si>
+    <t>Total liability</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>pension liability is only one month as DC scheme</t>
+  </si>
+  <si>
+    <t>accreud pension liab</t>
+  </si>
+  <si>
+    <t>Webster Ltd</t>
+  </si>
+  <si>
+    <t>DB pension scheme</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>conributions paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">benefits </t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>payment to other firms plan</t>
+  </si>
+  <si>
+    <t>obligation reduced</t>
+  </si>
+  <si>
+    <t>cr - staff cost</t>
+  </si>
+  <si>
+    <t>dr - RE</t>
+  </si>
+  <si>
+    <t>being loss on settlement</t>
+  </si>
+  <si>
+    <t>Finance cost</t>
+  </si>
+  <si>
+    <t>finance cost on obligation</t>
+  </si>
+  <si>
+    <t>finance income on assets</t>
+  </si>
+  <si>
+    <t>net finance cost</t>
+  </si>
+  <si>
+    <t>dr - SPL - finance costs</t>
+  </si>
+  <si>
+    <t>dr - pension account (assets)</t>
+  </si>
+  <si>
+    <t>cr - pension accounts (obligation)</t>
+  </si>
+  <si>
+    <t>being interest on assets and oblligations</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>net loss</t>
+  </si>
+  <si>
+    <t>being remeasurement and actuarial loss</t>
+  </si>
+  <si>
+    <t>Stamp Ltd</t>
+  </si>
+  <si>
+    <t>pensionable salary</t>
+  </si>
+  <si>
+    <t>Plan B</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>transfer payment</t>
+  </si>
+  <si>
+    <t>reduction in obligatoin</t>
+  </si>
+  <si>
+    <t>cr - net finance income</t>
+  </si>
+  <si>
+    <t>Step 4: interest</t>
+  </si>
+  <si>
+    <t>Defined contribution expense</t>
+  </si>
+  <si>
+    <t>less: interest not earned due to benefits paid</t>
+  </si>
+  <si>
+    <t>Less: interest not earned due to transfer</t>
+  </si>
+  <si>
+    <t>Finance income</t>
+  </si>
+  <si>
+    <t>finance cost</t>
+  </si>
+  <si>
+    <t>Less: interest not suffered due to benefits paid</t>
+  </si>
+  <si>
+    <t>Less: interest not suffered due to transfer</t>
+  </si>
+  <si>
+    <t>defined benefit pension expense</t>
+  </si>
+  <si>
+    <t>current service cost from 1/1/23 - 30*/06/23</t>
+  </si>
+  <si>
+    <t>current service cost from 1/7/23 - 31/12/23</t>
+  </si>
+  <si>
+    <t>Loss on transfer</t>
+  </si>
+  <si>
+    <t>Defined benefit pension expense</t>
+  </si>
+  <si>
+    <t>Plan A</t>
   </si>
 </sst>
 </file>
@@ -76,15 +627,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,15 +649,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -117,6 +707,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590085</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>73862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A2E49C-34C8-EB41-AE68-1A019D84F059}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612913" y="7686261"/>
+          <a:ext cx="3677478" cy="521123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590085</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>68685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372371C6-D709-C1CB-0FCB-D0D0FBB99CF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="608136" y="11151578"/>
+          <a:ext cx="3648806" cy="5300107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5635</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B5E693-2D5D-D97B-E409-C740DFC41221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612913" y="28061479"/>
+          <a:ext cx="3699679" cy="3727174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,7 +1145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A654F59E-9369-4B2E-B0F0-3CCDE6E1782C}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -443,10 +1170,1154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE280A1E-8B72-49D9-B517-DB7D6EA724FF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A66" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="3">
+        <v>26517</v>
+      </c>
+      <c r="D62" s="3">
+        <v>28129</v>
+      </c>
+      <c r="E62" s="3">
+        <f>+C62-D62</f>
+        <v>-1612</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="3">
+        <v>100</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <f>+C63-D63</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="3">
+        <v>-126</v>
+      </c>
+      <c r="D64" s="3">
+        <v>-126</v>
+      </c>
+      <c r="E64" s="3">
+        <f>+C64-D64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
+        <v>109</v>
+      </c>
+      <c r="E65" s="3">
+        <f>+C65-D65</f>
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>34</v>
+      </c>
+      <c r="E66" s="3">
+        <f>+C66-D66</f>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="3">
+        <v>-540</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-670</v>
+      </c>
+      <c r="E67" s="3">
+        <f>+C67-D67</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1060</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1120</v>
+      </c>
+      <c r="E68" s="3">
+        <f>+C68-D68</f>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C69" s="3">
+        <f>SUM(C62:C68)</f>
+        <v>27011</v>
+      </c>
+      <c r="D69" s="3">
+        <f>SUM(D62:D68)</f>
+        <v>28596</v>
+      </c>
+      <c r="E69" s="3">
+        <f>SUM(E62:E68)</f>
+        <v>-1585</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="3">
+        <v>-43</v>
+      </c>
+      <c r="D70" s="3">
+        <v>-74</v>
+      </c>
+      <c r="E70" s="3">
+        <f>+C70-D70</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="3">
+        <f>SUM(C69:C70)</f>
+        <v>26968</v>
+      </c>
+      <c r="D71" s="3">
+        <f>SUM(D69:D70)</f>
+        <v>28522</v>
+      </c>
+      <c r="E71" s="3">
+        <f>SUM(E69:E70)</f>
+        <v>-1554</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C110" s="1">
+        <v>2023</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C111" s="1">
+        <v>430</v>
+      </c>
+      <c r="D111" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" s="1">
+        <v>355</v>
+      </c>
+      <c r="D112" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C113" s="4">
+        <f>+C111-C112</f>
+        <v>75</v>
+      </c>
+      <c r="D113" s="4">
+        <f>+D111-D112</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" s="5">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C117" s="3">
+        <v>153.30000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B118" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" s="1">
+        <v>20</v>
+      </c>
+      <c r="D118" s="8">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C119" s="1">
+        <v>5</v>
+      </c>
+      <c r="D119" s="8">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E124" s="1">
+        <f>+C118</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C125" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F125" s="1">
+        <f>+E124</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" s="1">
+        <f>+C119</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C130" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F130" s="1">
+        <f>+E129</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="6">
+        <f>+C116</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D135" s="3">
+        <f>++C117</f>
+        <v>153.30000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D136" s="9">
+        <f>+D134*D135</f>
+        <v>22.995000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E138" s="3">
+        <f>+D136</f>
+        <v>22.995000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C139" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F139" s="3">
+        <f>+D136</f>
+        <v>22.995000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B143" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B144" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C146" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" s="3">
+        <v>300</v>
+      </c>
+      <c r="D147" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C148" s="3">
+        <f>+C118</f>
+        <v>20</v>
+      </c>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B149" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C149" s="12">
+        <v>-2.5</v>
+      </c>
+      <c r="D149" s="12">
+        <v>-2.5</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C150" s="3">
+        <f>SUM(C147:C149)</f>
+        <v>317.5</v>
+      </c>
+      <c r="D150" s="3">
+        <f>SUM(D147:D149)</f>
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C151" s="9">
+        <f>+$C$115*C150</f>
+        <v>17.462499999999999</v>
+      </c>
+      <c r="D151" s="9">
+        <f>+$C$115*D150</f>
+        <v>13.612500000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B153" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D153" s="3">
+        <f>+C151-D151</f>
+        <v>3.8499999999999979</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B155" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E155" s="3">
+        <f>+C151</f>
+        <v>17.462499999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C156" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F156" s="3">
+        <f>+D153</f>
+        <v>3.8499999999999979</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C157" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F157" s="3">
+        <f>+D151</f>
+        <v>13.612500000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B158" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B162" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C163" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C164" s="3">
+        <f>+C147</f>
+        <v>300</v>
+      </c>
+      <c r="D164" s="3">
+        <f>+D147</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165" s="3">
+        <f>+C148</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B166" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C166" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D166" s="3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D167" s="3">
+        <f>+F139</f>
+        <v>22.995000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C168" s="13">
+        <f>+E155</f>
+        <v>17.462499999999999</v>
+      </c>
+      <c r="D168" s="13">
+        <f>+F157</f>
+        <v>13.612500000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C169" s="3">
+        <f>SUM(C164:C168)</f>
+        <v>332.46249999999998</v>
+      </c>
+      <c r="D169" s="3">
+        <f>SUM(D164:D168)</f>
+        <v>281.60750000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C170" s="3">
+        <f>+C111</f>
+        <v>430</v>
+      </c>
+      <c r="D170" s="3">
+        <f>+C112</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C171" s="3">
+        <f>+C170-C169</f>
+        <v>97.537500000000023</v>
+      </c>
+      <c r="D171" s="3">
+        <f>+D170-D169</f>
+        <v>73.392499999999984</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B173" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B175" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D175" s="3">
+        <f>+C171-D171</f>
+        <v>24.145000000000039</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B177" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E177" s="3">
+        <f>+C171</f>
+        <v>97.537500000000023</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C178" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F178" s="3">
+        <f>+D171</f>
+        <v>73.392499999999984</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C179" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F179" s="3">
+        <f>+D175</f>
+        <v>24.145000000000039</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B180" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B185" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B216" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B218" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D218" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B219" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D219" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B220" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D220" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B221" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D221" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E224" s="3">
+        <f>+D218</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C225" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F225" s="3">
+        <f>+E224</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B226" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B228" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E228" s="3">
+        <f>+D219</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C229" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F229" s="3">
+        <f>+D219</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B230" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B232" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D232" s="3">
+        <f>+D220-D221</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B234" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E234" s="3">
+        <f>+D220</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C235" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F235" s="3">
+        <f>+D232</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F236" s="3">
+        <f>+D221</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B237" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B240" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D241" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B242" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D242" s="3">
+        <f>+C147</f>
+        <v>300</v>
+      </c>
+      <c r="E242" s="3">
+        <f>+D147</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B243" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D243" s="3">
+        <f>+C165+E228</f>
+        <v>30</v>
+      </c>
+      <c r="E243" s="3">
+        <f>+D165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B244" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D244" s="3">
+        <f>+C166</f>
+        <v>-5</v>
+      </c>
+      <c r="E244" s="3">
+        <f>+D166</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B245" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3">
+        <f>+D167</f>
+        <v>22.995000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B246" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3">
+        <f>+F225</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B247" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D247" s="3">
+        <f>-F236</f>
+        <v>-4.5</v>
+      </c>
+      <c r="E247" s="3">
+        <f>-+E234</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B248" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D248" s="13">
+        <f>+C168</f>
+        <v>17.462499999999999</v>
+      </c>
+      <c r="E248" s="13">
+        <f>+D168</f>
+        <v>13.612500000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D249" s="3">
+        <f>SUM(D242:D248)</f>
+        <v>337.96249999999998</v>
+      </c>
+      <c r="E249" s="3">
+        <f>SUM(E242:E248)</f>
+        <v>287.60750000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D250" s="3">
+        <f>+C170</f>
+        <v>430</v>
+      </c>
+      <c r="E250" s="3">
+        <f>+D170</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D251" s="9">
+        <f>+D250-D249</f>
+        <v>92.037500000000023</v>
+      </c>
+      <c r="E251" s="9">
+        <f>+E250-E249</f>
+        <v>67.392499999999984</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B253" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E253" s="1">
+        <f>+D251-E251</f>
+        <v>24.645000000000039</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B255" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E255" s="3">
+        <f>+D251</f>
+        <v>92.037500000000023</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C256" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F256" s="3">
+        <f>+E251</f>
+        <v>67.392499999999984</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C257" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F257" s="3">
+        <f>+E253</f>
+        <v>24.645000000000039</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B258" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{81BBD927-8A14-4875-AC95-7FE6721C373F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5D3154-4C5B-420C-8647-B279D06C70F9}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -454,21 +2325,1322 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="8">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E5" s="3">
+        <f>+D5/12</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="3">
+        <v>260</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ref="E6:E7" si="0">+D6/12</f>
+        <v>21.666666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="3">
+        <v>470</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>39.166666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="3">
+        <f>SUM(D5:D7)</f>
+        <v>2830</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="3">
+        <f>(+D5)/12</f>
+        <v>175</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="3">
+        <f>(+D6+D7)/12</f>
+        <v>60.833333333333336</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <f>(+D5)/12</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="1">
+        <f>+C18*C19</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="1">
+        <f>+C20</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="1">
+        <f>+E24</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="3">
+        <f>+D5</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="3">
+        <f>+D6</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="3">
+        <f>+E24</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="3">
+        <f>+C16*E34</f>
+        <v>37.674000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="9">
+        <f>SUM(E32:E35)</f>
+        <v>2670.674</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="3">
+        <f>+E7</f>
+        <v>39.166666666666664</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="3">
+        <f>+E6</f>
+        <v>21.666666666666668</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="3">
+        <f>SUM(E34:E35)</f>
+        <v>310.67399999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="9">
+        <f>SUM(E39:E41)</f>
+        <v>371.50733333333329</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{81BBD927-8A14-4875-AC95-7FE6721C373F}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{E14B5DD8-4CE3-4FC8-AC1D-74D7AA8A82C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3E8492-2535-4B3C-AEFE-A1769C434787}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A11" sqref="A3:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="1">
+        <f>9/12</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="1">
+        <f>0.03*C5</f>
+        <v>360</v>
+      </c>
+      <c r="D6" s="1">
+        <f>0.03*D5</f>
+        <v>900</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(C6:D6)</f>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="1">
+        <f>0.12*C5</f>
+        <v>1440</v>
+      </c>
+      <c r="D7" s="1">
+        <f>0.12*D5</f>
+        <v>3600</v>
+      </c>
+      <c r="E7" s="1">
+        <f>SUM(C7:D7)</f>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
+        <f>SUM(C6:C7)</f>
+        <v>1800</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SUM(D6:D7)</f>
+        <v>4500</v>
+      </c>
+      <c r="E8" s="1">
+        <f>SUM(C8:D8)</f>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="4">
+        <f>+SUM(D6:D7)/9</f>
+        <v>500</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D11)</f>
+        <v>=+SUM(D6:D7)/9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5377D28A-FF71-43F9-852C-9B455B0D173C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65F5188-9915-432F-8096-599C677392D7}">
+  <dimension ref="A1:F74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A50" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <v>45291</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15500</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="8">
+        <v>45291</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16700</v>
+      </c>
+      <c r="D8" s="1">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="8">
+        <v>44927</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="1">
+        <f>+C11</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="1">
+        <f>+E23</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="6">
+        <f>+C13</f>
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="6">
+        <f>+C14</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="9">
+        <f>+D29*D30</f>
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="3">
+        <f>+D31</f>
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="3">
+        <f>+D31</f>
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="3">
+        <f>+D40-D39</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="3">
+        <f>+D39</f>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="3">
+        <f>+D42</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="3">
+        <f>+D40</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="1">
+        <f>+C15*D7</f>
+        <v>1008</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E50)</f>
+        <v>=+C15*D7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="1">
+        <f>+(C7+E23)*C15</f>
+        <v>990</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E51)</f>
+        <v>=+(C7+E23)*C15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="4">
+        <f>+E50-E51</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="1">
+        <f>+E52</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="1">
+        <f>+E51</f>
+        <v>990</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F56" s="1">
+        <f>+E50</f>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="3">
+        <f>+C7</f>
+        <v>15500</v>
+      </c>
+      <c r="E61" s="3">
+        <f>+D7</f>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="3">
+        <f>+E23</f>
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3">
+        <f>+F34</f>
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="3">
+        <f>-F46</f>
+        <v>-700</v>
+      </c>
+      <c r="E64" s="3">
+        <f>-+E44</f>
+        <v>-670</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="13">
+        <f>+E55</f>
+        <v>990</v>
+      </c>
+      <c r="E65" s="13">
+        <f>+F56</f>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D66" s="3">
+        <f>SUM(D61:D65)</f>
+        <v>16790</v>
+      </c>
+      <c r="E66" s="3">
+        <f>SUM(E61:E65)</f>
+        <v>18617</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="3">
+        <f>+C8</f>
+        <v>16700</v>
+      </c>
+      <c r="E67" s="3">
+        <f>+D8</f>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="9">
+        <f>+D66-D67</f>
+        <v>90</v>
+      </c>
+      <c r="E68" s="9">
+        <f>+E66-E67</f>
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" s="3">
+        <f>+D68-E68</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72" s="3">
+        <f>+E70</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F73" s="3">
+        <f>+E72</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D6313C47-3372-4BEC-AF15-DE6CE5A2AFC8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E35B26-68DF-4E2A-B6F8-1BBA50F3D069}">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5600</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="1">
+        <f>0.05*C5</f>
+        <v>280</v>
+      </c>
+      <c r="D6" s="1">
+        <f>0.05*D5</f>
+        <v>101.25</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(C6:D6)</f>
+        <v>381.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="1">
+        <f>0.06*C5</f>
+        <v>336</v>
+      </c>
+      <c r="D7" s="1">
+        <f>0.06*D5</f>
+        <v>121.5</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(C7:D7)</f>
+        <v>457.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
+        <f>SUM(C6:C7)</f>
+        <v>616</v>
+      </c>
+      <c r="D8" s="1">
+        <f>SUM(D6:D7)</f>
+        <v>222.75</v>
+      </c>
+      <c r="E8" s="1">
+        <f>SUM(C8:D8)</f>
+        <v>838.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="8">
+        <v>45291</v>
+      </c>
+      <c r="C17" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="8">
+        <v>45291</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16700</v>
+      </c>
+      <c r="D18" s="1">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="1">
+        <f>+C17*C21</f>
+        <v>1550</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E30)</f>
+        <v>=+C17*C21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="1">
+        <f>+C24*6/12*C21</f>
+        <v>31</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E31)</f>
+        <v>=+C24*6/12*C21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="1">
+        <f>+C25*6/12*C21</f>
+        <v>285.2</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E32)</f>
+        <v>=+C25*6/12*C21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="4">
+        <f>+E30-E31-E32</f>
+        <v>1233.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="1">
+        <f>+D17*C21</f>
+        <v>942.4</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E35)</f>
+        <v>=+D17*C21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="1">
+        <f>+C24*6/12*C21</f>
+        <v>31</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E36)</f>
+        <v>=+C24*6/12*C21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="1">
+        <f>+C26*6/12*C21</f>
+        <v>275.89999999999998</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E37)</f>
+        <v>=+C26*6/12*C21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="4">
+        <f>+E35-E36-E37</f>
+        <v>635.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="1">
+        <f>+E30</f>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="1">
+        <f>-E38</f>
+        <v>-635.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="1">
+        <f>+E35</f>
+        <v>942.4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="15">
+        <f>5500*0.1</f>
+        <v>550</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F46)</f>
+        <v>=5500*0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="15">
+        <f>(5500-2025)*0.1</f>
+        <v>347.5</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F47)</f>
+        <v>=(5500-2025)*0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F48" s="14">
+        <f>+C25-C26</f>
+        <v>300</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F48)</f>
+        <v>=+C25-C26</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="1">
+        <f>-E33</f>
+        <v>-1233.8</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F49)</f>
+        <v>=-E33</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="1">
+        <f>+E38</f>
+        <v>635.5</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F50)</f>
+        <v>=+E38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F51" s="4">
+        <f>SUM(F46:F50)</f>
+        <v>599.20000000000005</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(F51)</f>
+        <v>=SUM(F46:F50)</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{559D668B-8817-474B-861B-ABABAA154C21}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ED10EA-92C8-4725-AA10-53033A3CB5B7}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C620CD-30A1-4F7D-8C05-82D3CE6B4CF2}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Module 18 - Employee Benefits.xlsx
+++ b/Module 18 - Employee Benefits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="849" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{532EBCEA-D1BD-49CF-8CC2-55A5EFE397C2}"/>
+  <xr:revisionPtr revIDLastSave="1159" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D09E97AB-F77A-4120-880E-EBCC3C056867}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="-16620" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="6855" yWindow="6705" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="7" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="210">
   <si>
     <t>Main</t>
   </si>
@@ -554,9 +554,6 @@
     <t>reduction in obligatoin</t>
   </si>
   <si>
-    <t>cr - net finance income</t>
-  </si>
-  <si>
     <t>Step 4: interest</t>
   </si>
   <si>
@@ -584,9 +581,6 @@
     <t>defined benefit pension expense</t>
   </si>
   <si>
-    <t>current service cost from 1/1/23 - 30*/06/23</t>
-  </si>
-  <si>
     <t>current service cost from 1/7/23 - 31/12/23</t>
   </si>
   <si>
@@ -597,6 +591,90 @@
   </si>
   <si>
     <t>Plan A</t>
+  </si>
+  <si>
+    <t>Abacus Beads plc</t>
+  </si>
+  <si>
+    <t>Defined contribution pension scheme</t>
+  </si>
+  <si>
+    <t>Pensionable salaries</t>
+  </si>
+  <si>
+    <t>11m</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>cr - pension accrual</t>
+  </si>
+  <si>
+    <t>being 1m accrued DC pension cost</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>dr - net finance cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add: interest earned due to contributions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less: interest not earned due to transfer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less: interest not earned fue to settlements </t>
+  </si>
+  <si>
+    <t>Finance income on assets</t>
+  </si>
+  <si>
+    <t>Net finance costs</t>
+  </si>
+  <si>
+    <t>current service cost from 1/1/23 - 30/06/23</t>
+  </si>
+  <si>
+    <t>ER - Defined contribution pesnion cost for the ER</t>
+  </si>
+  <si>
+    <t>Defined benefit pension liability - 1 months</t>
+  </si>
+  <si>
+    <t>current service cosT</t>
+  </si>
+  <si>
+    <t>contributions</t>
+  </si>
+  <si>
+    <t>Finance cost on obligatoin</t>
+  </si>
+  <si>
+    <t>Service cose</t>
+  </si>
+  <si>
+    <t>Intersest</t>
+  </si>
+  <si>
+    <t>Remesaurement gain and actuarial los</t>
+  </si>
+  <si>
+    <t>remesaurement of defined benefit pension plan</t>
+  </si>
+  <si>
+    <t>gain</t>
+  </si>
+  <si>
+    <t>net pension obligation</t>
+  </si>
+  <si>
+    <t>net pension assets</t>
   </si>
 </sst>
 </file>
@@ -674,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -691,6 +769,9 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1358,7 +1439,7 @@
         <v>28129</v>
       </c>
       <c r="E62" s="3">
-        <f>+C62-D62</f>
+        <f t="shared" ref="E62:E68" si="0">+C62-D62</f>
         <v>-1612</v>
       </c>
     </row>
@@ -1373,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="3">
-        <f>+C63-D63</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -1388,7 +1469,7 @@
         <v>-126</v>
       </c>
       <c r="E64" s="3">
-        <f>+C64-D64</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1403,7 +1484,7 @@
         <v>109</v>
       </c>
       <c r="E65" s="3">
-        <f>+C65-D65</f>
+        <f t="shared" si="0"/>
         <v>-109</v>
       </c>
     </row>
@@ -1418,7 +1499,7 @@
         <v>34</v>
       </c>
       <c r="E66" s="3">
-        <f>+C66-D66</f>
+        <f t="shared" si="0"/>
         <v>-34</v>
       </c>
     </row>
@@ -1433,7 +1514,7 @@
         <v>-670</v>
       </c>
       <c r="E67" s="3">
-        <f>+C67-D67</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
@@ -1448,7 +1529,7 @@
         <v>1120</v>
       </c>
       <c r="E68" s="3">
-        <f>+C68-D68</f>
+        <f t="shared" si="0"/>
         <v>-60</v>
       </c>
     </row>
@@ -2716,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65F5188-9915-432F-8096-599C677392D7}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD74"/>
+    <sheetView topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B60" sqref="A60:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3193,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E35B26-68DF-4E2A-B6F8-1BBA50F3D069}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+      <selection activeCell="A85" sqref="A70:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3214,10 +3295,14 @@
         <v>162</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="14"/>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -3229,20 +3314,21 @@
       <c r="D5" s="1">
         <v>2025</v>
       </c>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <f>0.05*C5</f>
         <v>280</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <f>0.05*D5</f>
         <v>101.25</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="15">
         <f>SUM(C6:D6)</f>
         <v>381.25</v>
       </c>
@@ -3251,37 +3337,41 @@
       <c r="B7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <f>0.06*C5</f>
         <v>336</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <f>0.06*D5</f>
         <v>121.5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="18">
         <f>SUM(C7:D7)</f>
         <v>457.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <f>SUM(C6:C7)</f>
         <v>616</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <f>SUM(D6:D7)</f>
         <v>222.75</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="15">
         <f>SUM(C8:D8)</f>
         <v>838.75</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="14"/>
+    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E10" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -3338,137 +3428,185 @@
       <c r="B22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>0.1</v>
       </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>11000</v>
       </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>1000</v>
       </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>9200</v>
       </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>8900</v>
       </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="1">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
         <f>+C17*C21</f>
         <v>1550</v>
       </c>
-      <c r="F30" s="1" t="str">
+      <c r="F30" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E30)</f>
         <v>=+C17*C21</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E31" s="1">
+        <v>171</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
         <f>+C24*6/12*C21</f>
         <v>31</v>
       </c>
-      <c r="F31" s="1" t="str">
+      <c r="F31" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E31)</f>
         <v>=+C24*6/12*C21</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" s="1">
+        <v>172</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
         <f>+C25*6/12*C21</f>
         <v>285.2</v>
       </c>
-      <c r="F32" s="1" t="str">
+      <c r="F32" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E32)</f>
         <v>=+C25*6/12*C21</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="4">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="17">
         <f>+E30-E31-E32</f>
         <v>1233.8</v>
       </c>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="1">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
         <f>+D17*C21</f>
         <v>942.4</v>
       </c>
-      <c r="F35" s="1" t="str">
+      <c r="F35" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E35)</f>
         <v>=+D17*C21</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E36" s="1">
+        <v>175</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
         <f>+C24*6/12*C21</f>
         <v>31</v>
       </c>
-      <c r="F36" s="1" t="str">
+      <c r="F36" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E36)</f>
         <v>=+C24*6/12*C21</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" s="1">
+        <v>176</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
         <f>+C26*6/12*C21</f>
         <v>275.89999999999998</v>
       </c>
-      <c r="F37" s="1" t="str">
+      <c r="F37" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E37)</f>
         <v>=+C26*6/12*C21</v>
       </c>
@@ -3477,152 +3615,857 @@
       <c r="B38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="4">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="9">
         <f>+E35-E36-E37</f>
         <v>635.5</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" s="1">
-        <f>+E30</f>
-        <v>1550</v>
-      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F41" s="1">
-        <f>-E38</f>
-        <v>-635.5</v>
-      </c>
+      <c r="B41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F42" s="1">
-        <f>+E35</f>
-        <v>942.4</v>
+      <c r="B42" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="15">
+        <f>5500*0.1</f>
+        <v>550</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" ref="G42:G47" ca="1" si="0">_xlfn.FORMULATEXT(F42)</f>
+        <v>=5500*0.1</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>158</v>
+        <v>178</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="15">
+        <f>(5500-2025)*0.1</f>
+        <v>347.5</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=(5500-2025)*0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="15">
+        <f>+C25-C26</f>
+        <v>300</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=+C25-C26</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3">
+        <f>-E33</f>
+        <v>-1233.8</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=-E33</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F46" s="15">
-        <f>5500*0.1</f>
-        <v>550</v>
+        <v>151</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3">
+        <f>+E38</f>
+        <v>635.5</v>
       </c>
       <c r="G46" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(F46)</f>
-        <v>=5500*0.1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+        <f t="shared" ca="1" si="0"/>
+        <v>=+E38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F47" s="15">
-        <f>(5500-2025)*0.1</f>
-        <v>347.5</v>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="9">
+        <f>SUM(F42:F46)</f>
+        <v>599.20000000000005</v>
       </c>
       <c r="G47" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(F47)</f>
-        <v>=(5500-2025)*0.1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F48" s="14">
-        <f>+C25-C26</f>
-        <v>300</v>
-      </c>
-      <c r="G48" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(F48)</f>
-        <v>=+C25-C26</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F49" s="1">
-        <f>-E33</f>
-        <v>-1233.8</v>
-      </c>
-      <c r="G49" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(F49)</f>
-        <v>=-E33</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F50" s="1">
-        <f>+E38</f>
-        <v>635.5</v>
-      </c>
-      <c r="G50" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(F50)</f>
-        <v>=+E38</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" s="4">
-        <f>SUM(F46:F50)</f>
-        <v>599.20000000000005</v>
-      </c>
-      <c r="G51" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(F51)</f>
-        <v>=SUM(F46:F50)</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>=SUM(F42:F46)</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{559D668B-8817-474B-861B-ABABAA154C21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ED10EA-92C8-4725-AA10-53033A3CB5B7}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A88" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="8">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="8">
+        <v>45199</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="3">
+        <f>11/12*E8</f>
+        <v>13750</v>
+      </c>
+      <c r="D8" s="3">
+        <f>1/12*E8</f>
+        <v>1250</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="3">
+        <f>C$8*0.1</f>
+        <v>1375</v>
+      </c>
+      <c r="D10" s="3">
+        <f>D$8*0.1</f>
+        <v>125</v>
+      </c>
+      <c r="E10" s="3">
+        <f>SUM(C10:D10)</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="3">
+        <f>C$8*0.075</f>
+        <v>1031.25</v>
+      </c>
+      <c r="D11" s="3">
+        <f>D$8*0.075</f>
+        <v>93.75</v>
+      </c>
+      <c r="E11" s="3">
+        <f>SUM(C11:D11)</f>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="3">
+        <f>SUM(D10:D11)</f>
+        <v>218.75</v>
+      </c>
+      <c r="E12" s="3">
+        <f>SUM(E10:E11)</f>
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <f>+E11</f>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="3">
+        <f>D12</f>
+        <v>218.75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="3">
+        <f>D19</f>
+        <v>218.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="3">
+        <v>480</v>
+      </c>
+      <c r="D27" s="8">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="3">
+        <v>330</v>
+      </c>
+      <c r="D28" s="8">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E35" s="3">
+        <f>+C64*C24</f>
+        <v>2090</v>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E35)</f>
+        <v>=+C64*C24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="15">
+        <f>+C27*C24</f>
+        <v>26.4</v>
+      </c>
+      <c r="F36" s="15" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E36)</f>
+        <v>=+C27*C24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37" s="3">
+        <f>+C26*6/12*C24</f>
+        <v>220</v>
+      </c>
+      <c r="F37" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E37)</f>
+        <v>=+C26*6/12*C24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="3">
+        <f>+C30*6/12*C24</f>
+        <v>275</v>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E38)</f>
+        <v>=+C30*6/12*C24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="17">
+        <f>E35+E36-E37-E38</f>
+        <v>1621.4</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:8" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="16"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="3">
+        <f>+D64*C24</f>
+        <v>2475</v>
+      </c>
+      <c r="F42" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E42)</f>
+        <v>=+D64*C24</v>
+      </c>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="3">
+        <f>C26*C24*6/12</f>
+        <v>220</v>
+      </c>
+      <c r="F43" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E43)</f>
+        <v>=C26*C24*6/12</v>
+      </c>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="3">
+        <f>+C31*6/12*C24</f>
+        <v>247.5</v>
+      </c>
+      <c r="F44" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E44)</f>
+        <v>=+C31*6/12*C24</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="9">
+        <f>E42-E43-E44</f>
+        <v>2007.5</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="2:8" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="3">
+        <f>E45</f>
+        <v>2007.5</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="3">
+        <f>E39</f>
+        <v>1621.4</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="3">
+        <f>E48-E47</f>
+        <v>-386.09999999999991</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="3">
+        <f>E35</f>
+        <v>2090</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" s="3">
+        <f>-E49</f>
+        <v>386.09999999999991</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3">
+        <f>+E42</f>
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="15">
+        <f>+C26*C25</f>
+        <v>800</v>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f t="shared" ref="G58:G61" ca="1" si="0">_xlfn.FORMULATEXT(F58)</f>
+        <v>=+C26*C25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="15">
+        <f>-(+C31-C30)</f>
+        <v>1000</v>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=-(+C31-C30)</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3">
+        <f>+E53</f>
+        <v>386.09999999999991</v>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=+E53</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="9">
+        <f>SUM(F58:F60)</f>
+        <v>2186.1</v>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=SUM(F58:F60)</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="3">
+        <v>38000</v>
+      </c>
+      <c r="D64" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="3">
+        <f>+C27+C28</f>
+        <v>810</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="3">
+        <f>-C26</f>
+        <v>-8000</v>
+      </c>
+      <c r="D66" s="3">
+        <f>-C26</f>
+        <v>-8000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3">
+        <f>+C26*C25</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="3">
+        <f>-+C30</f>
+        <v>-10000</v>
+      </c>
+      <c r="D68" s="3">
+        <f>-C31</f>
+        <v>-9000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="3">
+        <f>+E39</f>
+        <v>1621.4</v>
+      </c>
+      <c r="D69" s="3">
+        <f>+E45</f>
+        <v>2007.5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="8"/>
+      <c r="C70" s="3">
+        <f>SUM(C64:C69)</f>
+        <v>22431.4</v>
+      </c>
+      <c r="D70" s="3">
+        <f>SUM(D64:D69)</f>
+        <v>30807.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="3">
+        <v>32000</v>
+      </c>
+      <c r="D71" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="3">
+        <f>+C71-C70</f>
+        <v>9568.5999999999985</v>
+      </c>
+      <c r="D72" s="3">
+        <f>+D71-D70</f>
+        <v>9192.5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="3">
+        <f>+C72-D72</f>
+        <v>376.09999999999854</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D75" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="3">
+        <f>+D71</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="3">
+        <f>+C71</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" s="9">
+        <f>+D77-D78</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5ACDD00F-1455-4E73-9970-4251A827BAC1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3634,13 +4477,24 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AA7E66AB-234F-4D3C-9710-A9554E176D43}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Module 18 - Employee Benefits.xlsx
+++ b/Module 18 - Employee Benefits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1159" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D09E97AB-F77A-4120-880E-EBCC3C056867}"/>
+  <xr:revisionPtr revIDLastSave="1408" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1A52CB9-6442-4618-BF56-67F3C06538C2}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="6705" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="7" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="14370" firstSheet="4" activeTab="8" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="WSE18.4" sheetId="6" r:id="rId6"/>
     <sheet name="WSE18.6" sheetId="7" r:id="rId7"/>
     <sheet name="WSE18.7" sheetId="8" r:id="rId8"/>
+    <sheet name="WSE18.8" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="282">
   <si>
     <t>Main</t>
   </si>
@@ -675,13 +698,232 @@
   </si>
   <si>
     <t>net pension assets</t>
+  </si>
+  <si>
+    <t>Feather</t>
+  </si>
+  <si>
+    <t>DC and DB</t>
+  </si>
+  <si>
+    <t>March payroll</t>
+  </si>
+  <si>
+    <t>net wage</t>
+  </si>
+  <si>
+    <t>EE DC</t>
+  </si>
+  <si>
+    <t>PAYE &amp; EE NIC</t>
+  </si>
+  <si>
+    <t>recorded in the month</t>
+  </si>
+  <si>
+    <t>paid to hmrc in april</t>
+  </si>
+  <si>
+    <t>paid to pension in the subsequent month</t>
+  </si>
+  <si>
+    <t>dr - staff cost hmrc</t>
+  </si>
+  <si>
+    <t>EE deductions</t>
+  </si>
+  <si>
+    <t>increase in staff costs required</t>
+  </si>
+  <si>
+    <t>cr - HMRC payable</t>
+  </si>
+  <si>
+    <t>cr - pension liability</t>
+  </si>
+  <si>
+    <t>being correction to March payroll</t>
+  </si>
+  <si>
+    <t>ER contribution to pension plan</t>
+  </si>
+  <si>
+    <t>ER pension contribution</t>
+  </si>
+  <si>
+    <t>being correction to ER pension contributions</t>
+  </si>
+  <si>
+    <t>Defined benefit pension plan:</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>PV of obligation (acturial value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net pension asset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discount/interest rate </t>
+  </si>
+  <si>
+    <t>Current service cost (%*Salaries in year)</t>
+  </si>
+  <si>
+    <t>Contributions in year</t>
+  </si>
+  <si>
+    <t>Past service cost contributions</t>
+  </si>
+  <si>
+    <t>Past service cost additional liability</t>
+  </si>
+  <si>
+    <t>Transfers out</t>
+  </si>
+  <si>
+    <t>Reduction in FV of obligation due to transfer</t>
+  </si>
+  <si>
+    <t>Gain/(Loss) on transfer</t>
+  </si>
+  <si>
+    <t>Step 1 - Contributions</t>
+  </si>
+  <si>
+    <t>£</t>
+  </si>
+  <si>
+    <t>DR Pension account  (assets)</t>
+  </si>
+  <si>
+    <t>CR SPL - Admin expenses</t>
+  </si>
+  <si>
+    <t>Step 2 - Benefit/Transfer payments</t>
+  </si>
+  <si>
+    <t>DR Pension account (obligation)</t>
+  </si>
+  <si>
+    <t>CR Pension account (assets)</t>
+  </si>
+  <si>
+    <t>Step 3 - Service Cost</t>
+  </si>
+  <si>
+    <t>Current and past service costs should be charge to the SPL and credited against the pension obligation</t>
+  </si>
+  <si>
+    <t>DR SPL - Staff costs</t>
+  </si>
+  <si>
+    <t>CR Pension account (obligation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 4 - Interest </t>
+  </si>
+  <si>
+    <t>Finance income is recognised for asset/obligation balances across the year at the applicable interest rate</t>
+  </si>
+  <si>
+    <t>Pension assets</t>
+  </si>
+  <si>
+    <t>Pension obligations</t>
+  </si>
+  <si>
+    <t>Pro- rata  %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contributions </t>
+  </si>
+  <si>
+    <t>Past service costs</t>
+  </si>
+  <si>
+    <t>Transfers</t>
+  </si>
+  <si>
+    <t>Finance income on assets/costs on obligation</t>
+  </si>
+  <si>
+    <t>Net income/(cost)</t>
+  </si>
+  <si>
+    <t>Step 5 - remeasurements</t>
+  </si>
+  <si>
+    <t>Fair value of pension assets</t>
+  </si>
+  <si>
+    <t>Present value of pension obligation</t>
+  </si>
+  <si>
+    <t>Remeasurement gain/ Actuarial loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net gain/(loss) = </t>
+  </si>
+  <si>
+    <t>being benefit payment</t>
+  </si>
+  <si>
+    <t>WSE18.1</t>
+  </si>
+  <si>
+    <t>WSE18.2</t>
+  </si>
+  <si>
+    <t>WSE18.3</t>
+  </si>
+  <si>
+    <t>WSE18.4</t>
+  </si>
+  <si>
+    <t>WSE18.6</t>
+  </si>
+  <si>
+    <t>WSE18.7</t>
+  </si>
+  <si>
+    <t>WSE18.8</t>
+  </si>
+  <si>
+    <t>Stevenson</t>
+  </si>
+  <si>
+    <t>Net pension liability</t>
+  </si>
+  <si>
+    <t>CR SPL - staff costs</t>
+  </si>
+  <si>
+    <t>For pension contributions recognised as 'staff cost', both profits in the statement of profit or loss and RE on the statemtn of financial position are understated</t>
+  </si>
+  <si>
+    <t>The pension liablity on the statement of financial position has been overstated</t>
+  </si>
+  <si>
+    <t>To correct for this error, the contributions must be removed from staff costs and recognised in the pension account as an increase in pension prov'n assets</t>
+  </si>
+  <si>
+    <t>being benefit/transfer payment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,8 +946,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,8 +996,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -747,12 +1031,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -772,8 +1157,77 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1224,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A654F59E-9369-4B2E-B0F0-3CCDE6E1782C}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,14 +1689,54 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="'Module 18'!A1" display="Module 18" xr:uid="{22FEAAA5-258D-406B-A6EF-76BE50A64445}"/>
+    <hyperlink ref="C2" location="WSE18.1!A1" display="WSE18.1" xr:uid="{8F70A72E-8F69-4334-987E-FF2E2D2FF09C}"/>
+    <hyperlink ref="C3" location="WSE18.2!A1" display="WSE18.2" xr:uid="{E4FA92EA-B808-4206-80EA-A602590F755D}"/>
+    <hyperlink ref="C4" location="WSE18.3!A1" display="WSE18.3" xr:uid="{4DCE9B6D-952F-496F-BE19-8AE7C0E9248D}"/>
+    <hyperlink ref="C5" location="WSE18.4!A1" display="WSE18.4" xr:uid="{A6F27449-0C2F-4234-B33C-121AD4A581F9}"/>
+    <hyperlink ref="C6" location="WSE18.6!A1" display="WSE18.6" xr:uid="{C978F0A8-15B6-4BE8-BB54-4C1265EC8719}"/>
+    <hyperlink ref="C7" location="WSE18.7!A1" display="WSE18.7" xr:uid="{47644A8D-7615-45B8-8261-9B04AFFAD7AC}"/>
+    <hyperlink ref="C8" location="WSE18.8!A1" display="WSE18.8" xr:uid="{4E7B64FF-C922-49ED-96EF-4B244E02E740}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1253,7 +1747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE280A1E-8B72-49D9-B517-DB7D6EA724FF}">
   <dimension ref="A1:F258"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
@@ -3276,7 +3770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E35B26-68DF-4E2A-B6F8-1BBA50F3D069}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A85" sqref="A70:XFD85"/>
     </sheetView>
   </sheetViews>
@@ -3795,7 +4289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ED10EA-92C8-4725-AA10-53033A3CB5B7}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
@@ -4472,13 +4966,1071 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C620CD-30A1-4F7D-8C05-82D3CE6B4CF2}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="5" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="8">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2337</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="1">
+        <v>969</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="1">
+        <v>439</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="1">
+        <f>+C9</f>
+        <v>969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="1">
+        <f>+C10</f>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <f>SUM(C12:C13)</f>
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="1">
+        <v>174</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="1">
+        <f>SUM(C14:C15)</f>
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="1">
+        <f>+C16</f>
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="1">
+        <f>+C14</f>
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="1">
+        <f>+C15</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" s="1">
+        <f>+C15*2</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="1">
+        <f>+D24</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="1">
+        <f>+E26</f>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="59">
+        <v>70180</v>
+      </c>
+      <c r="F35" s="60">
+        <v>72650</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="59">
+        <v>69570</v>
+      </c>
+      <c r="F36" s="60">
+        <v>73100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="61">
+        <f>E35-E36</f>
+        <v>610</v>
+      </c>
+      <c r="F37" s="60">
+        <f>F35-F36</f>
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
+    </row>
+    <row r="39" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="40">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="41" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(F40)," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F40" s="60">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="60">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="60"/>
+    </row>
+    <row r="43" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="60"/>
+    </row>
+    <row r="44" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="60">
+        <v>6752</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="60"/>
+    </row>
+    <row r="46" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="60"/>
+    </row>
+    <row r="47" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="43"/>
+      <c r="D47" s="44" t="str">
+        <f>"= "&amp;F46&amp;"-"&amp;F45</f>
+        <v>= -</v>
+      </c>
+      <c r="E47" s="43"/>
+      <c r="F47" s="53">
+        <f>F46-F45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+    </row>
+    <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+    </row>
+    <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="61">
+        <f>F41+F42</f>
+        <v>360</v>
+      </c>
+      <c r="F51" s="61"/>
+    </row>
+    <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61">
+        <f>F41+F42</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+    </row>
+    <row r="54" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+    </row>
+    <row r="55" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+    </row>
+    <row r="56" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="38" t="str" cm="1">
+        <f t="array" ref="B56">_xlfn.IFS(F47&lt;0,"DR SPL - Staff costs",F47&gt;0,"CR SPL - Staff costs",F47=0," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="61">
+        <f>IF($F$47&lt;0,-$F$47,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="61">
+        <f>IF($F$47&gt;0,$F$47,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="61">
+        <f>F46+F44</f>
+        <v>6752</v>
+      </c>
+      <c r="F57" s="61"/>
+    </row>
+    <row r="58" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61">
+        <f>F45+F44</f>
+        <v>6752</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+    </row>
+    <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+    </row>
+    <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+    </row>
+    <row r="62" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+    </row>
+    <row r="63" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B63" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="61">
+        <f>F40+F43</f>
+        <v>212</v>
+      </c>
+      <c r="F63" s="61"/>
+    </row>
+    <row r="64" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61">
+        <f>F40+F43</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+    </row>
+    <row r="66" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+    </row>
+    <row r="67" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B67" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+    </row>
+    <row r="68" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B68" s="45"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="F69" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="61">
+        <f>F35</f>
+        <v>72650</v>
+      </c>
+      <c r="F70" s="61">
+        <f>F36</f>
+        <v>73100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B71" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" s="48">
+        <v>44652</v>
+      </c>
+      <c r="D71" s="49">
+        <v>0</v>
+      </c>
+      <c r="E71" s="62">
+        <f>D71*F41</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C72" s="38"/>
+      <c r="D72" s="49">
+        <v>0</v>
+      </c>
+      <c r="E72" s="62">
+        <f>F42*D72</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="62">
+        <f>D72*F43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B73" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="38"/>
+      <c r="D73" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="E73" s="62">
+        <f>-($D$73*$F$44)</f>
+        <v>-3376</v>
+      </c>
+      <c r="F73" s="62">
+        <f>-($D$73*$F$44)</f>
+        <v>-3376</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B74" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="49">
+        <v>1</v>
+      </c>
+      <c r="E74" s="62">
+        <f>($D$74*$E$51)</f>
+        <v>360</v>
+      </c>
+      <c r="F74" s="62"/>
+    </row>
+    <row r="75" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B75" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C75" s="38"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="62">
+        <f>D75*-F45</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="62">
+        <f>D75*-F46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B76" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="63">
+        <f>SUM(E70:E75)</f>
+        <v>69634</v>
+      </c>
+      <c r="F76" s="63">
+        <f>SUM(F70:F75)</f>
+        <v>69724</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="64">
+        <f>E76*F39</f>
+        <v>3342.4320000000002</v>
+      </c>
+      <c r="F77" s="64">
+        <f>F76*F39</f>
+        <v>3346.752</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="51" t="str">
+        <f>E76&amp;" * "&amp;$F$39*100&amp;"%"</f>
+        <v>69634 * 4.8%</v>
+      </c>
+      <c r="F78" s="51" t="str">
+        <f>F76&amp;" * "&amp;$F$39*100&amp;"%"</f>
+        <v>69724 * 4.8%</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="65">
+        <f>E77-F77</f>
+        <v>-4.319999999999709</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+    </row>
+    <row r="81" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B81" s="38" t="str">
+        <f>IF(E77&gt;0,"DR Pension account (assets)","CR Pension account (assets)")</f>
+        <v>DR Pension account (assets)</v>
+      </c>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="62">
+        <f>IF($E$77&gt;0,$E$77," ")</f>
+        <v>3342.4320000000002</v>
+      </c>
+      <c r="F81" s="62" t="str">
+        <f>IF($E$77&lt;0,-$E$77," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B82" s="38" t="str">
+        <f>IF(F77&gt;0,"CR Pension account (obligation)","DR Pension account (obligation)")</f>
+        <v>CR Pension account (obligation)</v>
+      </c>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="62" t="str">
+        <f>IF($F$77&lt;0,-$F$77," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F82" s="62">
+        <f>IF($F$77&gt;0,$F$77," ")</f>
+        <v>3346.752</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B83" s="38" t="str">
+        <f>IF(E77-F77&lt;0,"DR SPL - Finance costs","CR SPL - Finance income")</f>
+        <v>DR SPL - Finance costs</v>
+      </c>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="62">
+        <f>IF($E$77-$F$77&lt;0,-($E$77-$F$77),0)</f>
+        <v>4.319999999999709</v>
+      </c>
+      <c r="F83" s="62">
+        <f>IF($E$77-$F$77&gt;0,($E$77-$F$77),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+    </row>
+    <row r="85" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+    </row>
+    <row r="86" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B86" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+    </row>
+    <row r="87" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="F88" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B89" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="61">
+        <f>F35</f>
+        <v>72650</v>
+      </c>
+      <c r="F89" s="61">
+        <f>F36</f>
+        <v>73100</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B90" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="62">
+        <f>F41+F42</f>
+        <v>360</v>
+      </c>
+      <c r="F90" s="62"/>
+    </row>
+    <row r="91" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B91" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="62">
+        <f>-F44</f>
+        <v>-6752</v>
+      </c>
+      <c r="F91" s="62">
+        <f>-F44</f>
+        <v>-6752</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B92" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="62">
+        <f>-F45</f>
+        <v>0</v>
+      </c>
+      <c r="F92" s="62">
+        <f>-F46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B93" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62">
+        <f>F40</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B94" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="62">
+        <f>F43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B95" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="62">
+        <f>E77</f>
+        <v>3342.4320000000002</v>
+      </c>
+      <c r="F95" s="62">
+        <f>F77</f>
+        <v>3346.752</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="66">
+        <f>SUM(E89:E95)</f>
+        <v>69600.432000000001</v>
+      </c>
+      <c r="F96" s="66">
+        <f>SUM(F89:F95)</f>
+        <v>69906.751999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B97" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="61">
+        <f>E35</f>
+        <v>70180</v>
+      </c>
+      <c r="F97" s="61">
+        <f>E36</f>
+        <v>69570</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="64">
+        <f>E97-E96</f>
+        <v>579.5679999999993</v>
+      </c>
+      <c r="F98" s="64">
+        <f>F97-F96</f>
+        <v>-336.75199999999313</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="38"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+    </row>
+    <row r="100" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B100" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C100" s="38" t="str">
+        <f>E98&amp;" - "&amp;F98&amp;" = £"&amp;(E98-F98)</f>
+        <v>579.567999999999 - -336.751999999993 = £916.319999999992</v>
+      </c>
+      <c r="D100" s="38"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="38"/>
+    </row>
+    <row r="101" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="F101" s="46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B102" s="38" t="str">
+        <f>IF(E98&gt;0,"DR Pension account (assets)","CR Pension account (assets)")</f>
+        <v>DR Pension account (assets)</v>
+      </c>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="62">
+        <f>IF($E$98&gt;0,$E$98," ")</f>
+        <v>579.5679999999993</v>
+      </c>
+      <c r="F102" s="62" t="str">
+        <f>IF($E$98&lt;0,-$E$98," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B103" s="38" t="str">
+        <f>IF(F98&gt;0,"CR Pension account (obligation)","DR Pension account (obligation)")</f>
+        <v>DR Pension account (obligation)</v>
+      </c>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="62">
+        <f>IF($F$98&lt;0,-$F$98," ")</f>
+        <v>336.75199999999313</v>
+      </c>
+      <c r="F103" s="62" t="str">
+        <f>IF($F$98&gt;0,$F$98," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B104" s="38" t="str">
+        <f>IF((E98-F98)&gt;0,"CR Retained earnings","DR Retained earnings")</f>
+        <v>CR Retained earnings</v>
+      </c>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="62">
+        <f>IF(($E$98-$F$98)&lt;0,-($E$98-$F$98),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F104" s="62">
+        <f>IF(($E$98-$F$98)&gt;0,$E$98-$F$98,0)</f>
+        <v>916.31999999999243</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+    </row>
+    <row r="106" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="50"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AA7E66AB-234F-4D3C-9710-A9554E176D43}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1C9D8B-2C8E-4AAF-BD3D-B24CBA1A27A0}">
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4486,14 +6038,907 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" s="59">
+        <v>65800</v>
+      </c>
+      <c r="F13" s="60">
+        <v>60800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" s="59">
+        <v>71600</v>
+      </c>
+      <c r="F14" s="60">
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" s="61">
+        <f>E13-E14</f>
+        <v>-5800</v>
+      </c>
+      <c r="F15" s="60">
+        <f>F13-F14</f>
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="40">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" s="41" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(F18)," ")</f>
+        <v>=36000*0.09</v>
+      </c>
+      <c r="F18" s="60">
+        <f>36000*0.09</f>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="60">
+        <v>2600</v>
+      </c>
+      <c r="G19" s="8">
+        <v>43160</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="60">
+        <v>4000</v>
+      </c>
+      <c r="G20" s="8">
+        <v>43524</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="60"/>
+    </row>
+    <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="60"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="60">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="60">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="60">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26" t="str">
+        <f>"= "&amp;F25&amp;"-"&amp;F24</f>
+        <v>= 4500-4300</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="53">
+        <f>F25-F24</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" s="52">
+        <f>F19+F21+F20</f>
+        <v>6600</v>
+      </c>
+      <c r="F30" s="52"/>
+    </row>
+    <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52">
+        <f>F19+F21+F20</f>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+    </row>
+    <row r="33" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" t="str" cm="1">
+        <f t="array" ref="B35">_xlfn.IFS(F26&lt;0,"DR SPL - Staff costs",F26&gt;0,"CR SPL - Staff costs",F26=0," ")</f>
+        <v>CR SPL - Staff costs</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="52">
+        <f>IF($F$26&lt;0,-$F$26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="52">
+        <f>IF($F$26&gt;0,$F$26,0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" s="52">
+        <f>F25+F23</f>
+        <v>12700</v>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52">
+        <f>F24+F23</f>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+    </row>
+    <row r="41" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+    </row>
+    <row r="42" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42" s="52">
+        <f>F18+F22</f>
+        <v>3240</v>
+      </c>
+      <c r="F42" s="52"/>
+    </row>
+    <row r="43" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52">
+        <f>F18+F22</f>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B47" s="27"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47" t="s">
+        <v>254</v>
+      </c>
+      <c r="F47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49" s="52">
+        <f>F13</f>
+        <v>60800</v>
+      </c>
+      <c r="F49" s="52">
+        <f>F14</f>
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>257</v>
+      </c>
+      <c r="C50" s="30">
+        <v>44652</v>
+      </c>
+      <c r="D50" s="31">
+        <v>1</v>
+      </c>
+      <c r="E50" s="54">
+        <f>D50*F19</f>
+        <v>2600</v>
+      </c>
+      <c r="F50" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51" s="31">
+        <v>0</v>
+      </c>
+      <c r="E51" s="54">
+        <f>F21*D51</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="54">
+        <f>D51*F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="54">
+        <f>-($D$52*$F$23)</f>
+        <v>-4100</v>
+      </c>
+      <c r="F52" s="54">
+        <f>-($D$52*$F$23)</f>
+        <v>-4100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="54">
+        <f>D53*-F24</f>
+        <v>-2150</v>
+      </c>
+      <c r="F53" s="54">
+        <f>D53*-F25</f>
+        <v>-2250</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54" s="55">
+        <f>SUM(E49:E53)</f>
+        <v>57150</v>
+      </c>
+      <c r="F54" s="55">
+        <f>SUM(F49:F53)</f>
+        <v>60050</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55" s="56">
+        <f>E54*F17</f>
+        <v>2628.9</v>
+      </c>
+      <c r="F55" s="56">
+        <f>F54*F17</f>
+        <v>2762.2999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56" s="32" t="str">
+        <f>E54&amp;" * "&amp;$F$17*100&amp;"%"</f>
+        <v>57150 * 4.6%</v>
+      </c>
+      <c r="F56" s="32" t="str">
+        <f>F54&amp;" * "&amp;$F$17*100&amp;"%"</f>
+        <v>60050 * 4.6%</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="57">
+        <f>E55-F55</f>
+        <v>-133.39999999999964</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59" t="str">
+        <f>IF(E55&gt;0,"DR Pension account (assets)","CR Pension account (assets)")</f>
+        <v>DR Pension account (assets)</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59" s="54">
+        <f>IF($E$55&gt;0,$E$55," ")</f>
+        <v>2628.9</v>
+      </c>
+      <c r="F59" s="54" t="str">
+        <f>IF($E$55&lt;0,-$E$55," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" t="str">
+        <f>IF(F55&gt;0,"CR Pension account (obligation)","DR Pension account (obligation)")</f>
+        <v>CR Pension account (obligation)</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60" s="54" t="str">
+        <f>IF($F$55&lt;0,-$F$55," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F60" s="54">
+        <f>IF($F$55&gt;0,$F$55," ")</f>
+        <v>2762.2999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" t="str">
+        <f>IF(E55-F55&lt;0,"DR SPL - Finance costs","CR SPL - Finance income")</f>
+        <v>DR SPL - Finance costs</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61" s="54">
+        <f>IF($E$55-$F$55&lt;0,-($E$55-$F$55),0)</f>
+        <v>133.39999999999964</v>
+      </c>
+      <c r="F61" s="54">
+        <f>IF($E$55-$F$55&gt;0,($E$55-$F$55),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65" t="s">
+        <v>263</v>
+      </c>
+      <c r="F65" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67" s="52">
+        <f>F13</f>
+        <v>60800</v>
+      </c>
+      <c r="F67" s="52">
+        <f>F14</f>
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68" s="54">
+        <f>F19+F21+F20</f>
+        <v>6600</v>
+      </c>
+      <c r="F68" s="54"/>
+    </row>
+    <row r="69" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69" s="54">
+        <f>-F23</f>
+        <v>-8200</v>
+      </c>
+      <c r="F69" s="54">
+        <f>-F23</f>
+        <v>-8200</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70" s="54">
+        <f>-F24</f>
+        <v>-4300</v>
+      </c>
+      <c r="F70" s="54">
+        <f>-F25</f>
+        <v>-4500</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54">
+        <f>F18</f>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54">
+        <f>F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73" s="54">
+        <f>E55</f>
+        <v>2628.9</v>
+      </c>
+      <c r="F73" s="54">
+        <f>F55</f>
+        <v>2762.2999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74" s="58">
+        <f>SUM(E67:E73)</f>
+        <v>57528.9</v>
+      </c>
+      <c r="F74" s="58">
+        <f>SUM(F67:F73)</f>
+        <v>59702.3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75" s="52">
+        <f>E13</f>
+        <v>65800</v>
+      </c>
+      <c r="F75" s="52">
+        <f>E14</f>
+        <v>71600</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76" s="56">
+        <f>E75-E74</f>
+        <v>8271.0999999999985</v>
+      </c>
+      <c r="F76" s="56">
+        <f>F75-F74</f>
+        <v>11897.699999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" t="str">
+        <f>E76&amp;" - "&amp;F76&amp;" = £"&amp;(E76-F76)</f>
+        <v>8271.1 - 11897.7 = £-3626.6</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B80" t="str">
+        <f>IF(E76&gt;0,"DR Pension account (assets)","CR Pension account (assets)")</f>
+        <v>DR Pension account (assets)</v>
+      </c>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80" s="54">
+        <f>IF($E$76&gt;0,$E$76," ")</f>
+        <v>8271.0999999999985</v>
+      </c>
+      <c r="F80" s="54" t="str">
+        <f>IF($E$76&lt;0,-$E$76," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B81" t="str">
+        <f>IF(F76&gt;0,"CR Pension account (obligation)","DR Pension account (obligation)")</f>
+        <v>CR Pension account (obligation)</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81" s="54" t="str">
+        <f>IF($F$76&lt;0,-$F$76," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F81" s="54">
+        <f>IF($F$76&gt;0,$F$76," ")</f>
+        <v>11897.699999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B82" t="str">
+        <f>IF((E76-F76)&gt;0,"CR Retained earnings","DR Retained earnings")</f>
+        <v>DR Retained earnings</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82" s="54">
+        <f>IF(($E$76-$F$76)&lt;0,-($E$76-$F$76),0)</f>
+        <v>3626.5999999999985</v>
+      </c>
+      <c r="F82" s="54">
+        <f>IF(($E$76-$F$76)&gt;0,$E$76-$F$76,0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{AA7E66AB-234F-4D3C-9710-A9554E176D43}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{97D810F5-89CC-46F4-8850-1D91683CBA30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Module 18 - Employee Benefits.xlsx
+++ b/Module 18 - Employee Benefits.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1408" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1A52CB9-6442-4618-BF56-67F3C06538C2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="14370" firstSheet="4" activeTab="8" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="0" yWindow="2115" windowWidth="28800" windowHeight="14370" activeTab="8" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -4968,8 +4968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C620CD-30A1-4F7D-8C05-82D3CE6B4CF2}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/Module 18 - Employee Benefits.xlsx
+++ b/Module 18 - Employee Benefits.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1408" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1A52CB9-6442-4618-BF56-67F3C06538C2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2115" windowWidth="28800" windowHeight="14370" activeTab="8" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="6675" windowHeight="6945" firstSheet="2" activeTab="2" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1680,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A654F59E-9369-4B2E-B0F0-3CCDE6E1782C}">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE280A1E-8B72-49D9-B517-DB7D6EA724FF}">
   <dimension ref="A1:F258"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2891,8 +2891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5D3154-4C5B-420C-8647-B279D06C70F9}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:F55"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3172,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3E8492-2535-4B3C-AEFE-A1769C434787}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A11" sqref="A3:XFD11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3291,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65F5188-9915-432F-8096-599C677392D7}">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B60" sqref="A60:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3770,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E35B26-68DF-4E2A-B6F8-1BBA50F3D069}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A85" sqref="A70:XFD85"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4289,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ED10EA-92C8-4725-AA10-53033A3CB5B7}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4968,8 +4968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C620CD-30A1-4F7D-8C05-82D3CE6B4CF2}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6030,7 +6030,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
